--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -48,35 +48,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务完成目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>精英场</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>新的征程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在精英场赢得30场胜利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成一局游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>游戏高手</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>体验场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>赚钱高手</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新的征程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成一局游戏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reward</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>体验场</t>
+    <t>高级场</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -84,15 +108,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>任务完成目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Target</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级场</t>
+    <t>连赢5场</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -100,23 +116,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在精英场赢得30场胜利</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连赢5场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>当日累计赢取10000金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,7 +498,7 @@
   <dimension ref="C3:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -518,16 +518,16 @@
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.3">
@@ -541,10 +541,10 @@
         <v>5</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.3">
@@ -569,16 +569,16 @@
         <v>101</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F6" s="4">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="G6" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.3">
@@ -586,16 +586,16 @@
         <v>102</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="3">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="G7" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.3">
@@ -603,16 +603,16 @@
         <v>103</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="3">
         <v>10000</v>
       </c>
       <c r="G8" s="3">
-        <v>10000</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.3">
@@ -620,16 +620,16 @@
         <v>104</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="G9" s="3">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.3">
@@ -637,16 +637,16 @@
         <v>105</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F10" s="3">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G10" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.3">
@@ -654,16 +654,16 @@
         <v>106</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F11" s="3">
         <v>10000</v>
       </c>
       <c r="G11" s="3">
-        <v>20</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.3">

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,47 +76,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>在精英场赢得30场胜利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成一局游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏高手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赚钱高手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连赢5场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日累计赢取10000金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>新的征程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在精英场赢得30场胜利</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成一局游戏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏高手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>体验场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赚钱高手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在体验场赢得10场胜利</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连赢5场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在高级场赢得20场胜利</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当日累计赢取10000金币</t>
+    <t>新手场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在新手场赢得10场胜利</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -495,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:G22"/>
+  <dimension ref="C3:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -569,10 +561,10 @@
         <v>101</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="4">
         <v>100</v>
@@ -586,10 +578,10 @@
         <v>102</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" s="3">
         <v>1000</v>
@@ -603,16 +595,16 @@
         <v>103</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F8" s="3">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="G8" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.3">
@@ -620,16 +612,16 @@
         <v>104</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F9" s="3">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="G9" s="3">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.3">
@@ -640,31 +632,21 @@
         <v>18</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F10" s="3">
         <v>10000</v>
       </c>
       <c r="G10" s="3">
-        <v>5</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C11" s="3">
-        <v>106</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="3">
-        <v>10000</v>
-      </c>
-      <c r="G11" s="3">
-        <v>10000</v>
-      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C12" s="3"/>
@@ -729,20 +711,6 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
